--- a/data/menu_data.xlsx
+++ b/data/menu_data.xlsx
@@ -436,633 +436,633 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menu Item</t>
+          <t>menu_category</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Menu Category</t>
+          <t>menu_item</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Cost</t>
+          <t>cost</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Price</t>
+          <t>price</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Number Sold</t>
+          <t>contribution_margin</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Contribution Margin</t>
+          <t>number_sold</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Steak Sandwich</t>
+          <t>Pasta</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sandwich</t>
+          <t>Spaghetti Bolognese</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.31</v>
+        <v>3.36</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>57</v>
+        <v>5.640000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>3.69</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chicken Sandwich</t>
+          <t>Pasta</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sandwich</t>
+          <t>Lasagna</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.3</v>
+        <v>4.97</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>58</v>
+        <v>6.03</v>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BLT Sandwich</t>
+          <t>Pasta</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sandwich</t>
+          <t>Penne Arrabiata</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.8</v>
+        <v>4.39</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>17</v>
+        <v>4.61</v>
       </c>
       <c r="F4" t="n">
-        <v>3.2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Turkey Avocado Sandwich</t>
+          <t>Pasta</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sandwich</t>
+          <t>Carbonara</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>7.45</v>
       </c>
       <c r="F5" t="n">
-        <v>3.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Club Sandwich</t>
+          <t>Pasta</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sandwich</t>
+          <t>Fettuccine Alfredo</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.59</v>
+        <v>3.53</v>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>23</v>
+        <v>7.470000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>4.41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pepperoni Pizza</t>
+          <t>Burger</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pizza</t>
+          <t>BBQ Burger</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.55</v>
+        <v>1.51</v>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
-        <v>39</v>
+        <v>7.49</v>
       </c>
       <c r="F7" t="n">
-        <v>9.449999999999999</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Margherita Pizza</t>
+          <t>Burger</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pizza</t>
+          <t>Jalapeno Burger</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.01</v>
+        <v>2.23</v>
       </c>
       <c r="D8" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>37</v>
+        <v>5.77</v>
       </c>
       <c r="F8" t="n">
-        <v>10.99</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Vegetarian Pizza</t>
+          <t>Burger</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pizza</t>
+          <t>Classic Cheeseburger</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.75</v>
+        <v>1.72</v>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>56</v>
+        <v>6.28</v>
       </c>
       <c r="F9" t="n">
-        <v>7.25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Supreme Pizza</t>
+          <t>Burger</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pizza</t>
+          <t>Double Patty Burger</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.58</v>
+        <v>2.36</v>
       </c>
       <c r="D10" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E10" t="n">
-        <v>26</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>11.42</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BBQ Chicken Pizza</t>
+          <t>Burger</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pizza</t>
+          <t>Mushroom Swiss Burger</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.57</v>
+        <v>2.46</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>46</v>
+        <v>5.54</v>
       </c>
       <c r="F11" t="n">
-        <v>8.43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Carbonara</t>
+          <t>Pizza</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pasta</t>
+          <t>BBQ Chicken Pizza</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.96</v>
+        <v>2.01</v>
       </c>
       <c r="D12" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>21</v>
+        <v>5.99</v>
       </c>
       <c r="F12" t="n">
-        <v>8.039999999999999</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fettuccine Alfredo</t>
+          <t>Pizza</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Pasta</t>
+          <t>Supreme Pizza</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4.2</v>
+        <v>1.62</v>
       </c>
       <c r="D13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>15</v>
+        <v>10.38</v>
       </c>
       <c r="F13" t="n">
-        <v>9.800000000000001</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Spaghetti Bolognese</t>
+          <t>Pizza</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Pasta</t>
+          <t>Vegetarian Pizza</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4.46</v>
+        <v>1.72</v>
       </c>
       <c r="D14" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E14" t="n">
-        <v>15</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>9.539999999999999</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lasagna</t>
+          <t>Pizza</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pasta</t>
+          <t>Margherita Pizza</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4.45</v>
+        <v>2.08</v>
       </c>
       <c r="D15" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>58</v>
+        <v>11.92</v>
       </c>
       <c r="F15" t="n">
-        <v>6.55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Penne Arrabiata</t>
+          <t>Pizza</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pasta</t>
+          <t>Pepperoni Pizza</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.8</v>
+        <v>2.02</v>
       </c>
       <c r="D16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" t="n">
-        <v>58</v>
+        <v>10.98</v>
       </c>
       <c r="F16" t="n">
-        <v>10.2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Mozzarella Sticks</t>
+          <t>Sandwich</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Side</t>
+          <t>Chicken Sandwich</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.87</v>
+        <v>3.33</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>34</v>
+        <v>4.67</v>
       </c>
       <c r="F17" t="n">
-        <v>2.13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>French Fries</t>
+          <t>Sandwich</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Side</t>
+          <t>Club Sandwich</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.49</v>
+        <v>2.78</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E18" t="n">
-        <v>30</v>
+        <v>5.220000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>1.51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Coleslaw</t>
+          <t>Sandwich</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Side</t>
+          <t>BLT Sandwich</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.71</v>
+        <v>3.15</v>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>55</v>
+        <v>1.85</v>
       </c>
       <c r="F19" t="n">
-        <v>3.29</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Garlic Bread</t>
+          <t>Sandwich</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Side</t>
+          <t>Turkey Avocado Sandwich</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.99</v>
+        <v>3.66</v>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>11</v>
+        <v>4.34</v>
       </c>
       <c r="F20" t="n">
-        <v>2.01</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Onion Rings</t>
+          <t>Sandwich</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Side</t>
+          <t>Steak Sandwich</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.83</v>
+        <v>3.49</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>39</v>
+        <v>1.51</v>
       </c>
       <c r="F21" t="n">
-        <v>2.17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Double Patty Burger</t>
+          <t>Side</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Burger</t>
+          <t>Onion Rings</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E22" t="n">
-        <v>39</v>
+        <v>4.06</v>
       </c>
       <c r="F22" t="n">
-        <v>8.050000000000001</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Classic Cheeseburger</t>
+          <t>Side</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Burger</t>
+          <t>French Fries</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2.38</v>
+        <v>1.61</v>
       </c>
       <c r="D23" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>46</v>
+        <v>2.39</v>
       </c>
       <c r="F23" t="n">
-        <v>5.62</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Mushroom Swiss Burger</t>
+          <t>Side</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Burger</t>
+          <t>Coleslaw</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2.15</v>
+        <v>0.83</v>
       </c>
       <c r="D24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>4.17</v>
       </c>
       <c r="F24" t="n">
-        <v>4.85</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BBQ Burger</t>
+          <t>Side</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Burger</t>
+          <t>Mozzarella Sticks</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.92</v>
+        <v>1.11</v>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E25" t="n">
-        <v>56</v>
+        <v>3.89</v>
       </c>
       <c r="F25" t="n">
-        <v>8.08</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Jalapeno Burger</t>
+          <t>Side</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Burger</t>
+          <t>Garlic Bread</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.49</v>
+        <v>1.37</v>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>41</v>
+        <v>1.63</v>
       </c>
       <c r="F26" t="n">
-        <v>5.51</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
